--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694073.6668114511</v>
+        <v>697789.2713751483</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340086</v>
+        <v>714286.6128340082</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7168866.48846827</v>
+        <v>7168866.488468271</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.83625314333863</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>255.7932272553367</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -741,16 +743,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>88.93351440885131</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -786,13 +788,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3424411355423</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>282.6428925342748</v>
+        <v>94.02560441095967</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>166.7762399945723</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>39.83193817740158</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>17.06919439540851</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>112.8284316348076</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1278,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>7.006045159989625</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>252.0622813391633</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
@@ -1427,7 +1429,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
@@ -1436,7 +1438,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>218.3273332069601</v>
       </c>
     </row>
     <row r="12">
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80.56312836140725</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>95.9550838187259</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>10.09209246479631</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>325.224086848979</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>81.47297578166116</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>268.7718776409795</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>164.1639932260701</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.2514396571204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2168,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>118.1202051047698</v>
+        <v>118.1202051047702</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>95.35118060347813</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,10 +2329,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>130.9298398667643</v>
+        <v>79.8297419248083</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -2403,19 +2405,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>43.95977125114952</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2454,10 +2456,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>243.4438153256982</v>
       </c>
       <c r="V25" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,16 +2557,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>325.428175145475</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>120.839113575892</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>109.3584438067143</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>122.2235956748355</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>186.7982527956746</v>
@@ -2697,7 +2699,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>103.1087300426801</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>188.1582211987009</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2877,10 +2879,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2925,7 +2927,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>114.7118858851251</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>26.83243822562797</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.095587023195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>122.515280996072</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.24160438445807</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3117,10 +3119,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>174.0689237038512</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.2040305762913</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>128.5900859387892</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>78.5006111121652</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3353,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>49.67353352483946</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.011135804781273</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>100.4358716628809</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.0888648298624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3593,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>91.10593929580311</v>
       </c>
       <c r="U39" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.96816892577734</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.81620099292969</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.59602910536552</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>188.1582211987009</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3828,10 +3830,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3882,10 +3884,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>98.30833154240014</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>95.41725175393267</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>373.9935629816822</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>79.82974192480785</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4067,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.09209246479631</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4147,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.96816892577734</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.37400675103623</v>
+        <v>673.2252181015886</v>
       </c>
       <c r="C2" t="n">
-        <v>93.37400675103623</v>
+        <v>673.2252181015886</v>
       </c>
       <c r="D2" t="n">
-        <v>93.37400675103623</v>
+        <v>300.4012533288121</v>
       </c>
       <c r="E2" t="n">
-        <v>93.37400675103623</v>
+        <v>300.4012533288121</v>
       </c>
       <c r="F2" t="n">
-        <v>42.02425610119923</v>
+        <v>300.4012533288121</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119923</v>
+        <v>300.4012533288121</v>
       </c>
       <c r="H2" t="n">
         <v>42.02425610119923</v>
@@ -4331,16 +4333,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4361,19 +4363,19 @@
         <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>1568.460206900163</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V2" t="n">
-        <v>1231.480932796104</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W2" t="n">
-        <v>868.9460026537049</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="X2" t="n">
-        <v>486.9158621751982</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.37400675103623</v>
+        <v>1067.268757619608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G3" t="n">
         <v>210.3443988644402</v>
@@ -4410,19 +4412,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N3" t="n">
-        <v>1641.34525599867</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4434,25 +4436,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>2041.428536154907</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>2041.428536154907</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4513,25 +4515,25 @@
         <v>386.0243786151989</v>
       </c>
       <c r="S4" t="n">
-        <v>386.0243786151989</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1138.411833787647</v>
+        <v>1058.742073831774</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.411833787647</v>
+        <v>1058.742073831774</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.411833787647</v>
+        <v>1058.742073831774</v>
       </c>
       <c r="E5" t="n">
-        <v>743.6261138937534</v>
+        <v>1058.742073831774</v>
       </c>
       <c r="F5" t="n">
-        <v>458.1282426470112</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4592,25 +4594,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.983829690315</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.983829690315</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W5" t="n">
-        <v>1913.983829690315</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X5" t="n">
-        <v>1531.953689211809</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.411833787647</v>
+        <v>1452.785613349793</v>
       </c>
     </row>
     <row r="6">
@@ -4647,43 +4649,43 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T6" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U6" t="n">
-        <v>1940.906265175487</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V6" t="n">
-        <v>1712.510642623821</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W6" t="n">
-        <v>1471.194773857131</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="X6" t="n">
         <v>1273.277785734925</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.25853708847356</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>304.2936958961965</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.25853708847356</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.212805059961</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="C8" t="n">
-        <v>2101.212805059961</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="D8" t="n">
-        <v>1772.703626424629</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4838,16 +4840,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y8" t="n">
-        <v>2101.212805059961</v>
+        <v>626.126604910835</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>753.0168738400023</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>591.313201080957</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>452.4745640711691</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E9" t="n">
-        <v>305.4465541280403</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7527560779147</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>49.73385863501696</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O9" t="n">
         <v>1641.34525599867</v>
@@ -4905,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1987.244692297529</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1798.559588463515</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1580.064796061825</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1351.669173510159</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1110.353304743468</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>912.4363166212631</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>912.4363166212631</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>567.0066880542129</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>567.0066880542129</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>413.9347948819756</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>413.9347948819756</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F10" t="n">
-        <v>261.4541399077527</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G10" t="n">
-        <v>261.4541399077527</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I10" t="n">
         <v>102.0814946870265</v>
@@ -4996,16 +4998,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>567.0066880542129</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>567.0066880542129</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>567.0066880542129</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.0066880542129</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5063,28 +5065,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S11" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T11" t="n">
-        <v>1689.624883421327</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U11" t="n">
-        <v>1434.739547135321</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V11" t="n">
-        <v>1434.739547135321</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W11" t="n">
-        <v>1072.204616992922</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X11" t="n">
-        <v>690.1744765144151</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.6326210902531</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5123,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K12" t="n">
-        <v>271.5148086613879</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L12" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N12" t="n">
         <v>1406.916935000113</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>261.4541399077527</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="C14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="D14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="E14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H14" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I14" t="n">
         <v>42.02425610119923</v>
@@ -5288,7 +5290,7 @@
         <v>1095.287711756822</v>
       </c>
       <c r="N14" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O14" t="n">
         <v>1778.623654917371</v>
@@ -5318,10 +5320,10 @@
         <v>644.5870563847161</v>
       </c>
       <c r="X14" t="n">
-        <v>262.5569159062094</v>
+        <v>547.662729295094</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>863.1487640860278</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C15" t="n">
-        <v>701.4450913269825</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D15" t="n">
-        <v>562.6064543171946</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E15" t="n">
-        <v>415.5784443740658</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8846463239402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1561463472247</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H15" t="n">
-        <v>52.21828889392278</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5364,16 +5366,16 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N15" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
@@ -5388,19 +5390,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U15" t="n">
-        <v>1882.718012658271</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V15" t="n">
-        <v>1654.322390106605</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W15" t="n">
-        <v>1413.006521339915</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X15" t="n">
-        <v>1215.08953321771</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y15" t="n">
-        <v>1022.568206867289</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>422.0744871084505</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>269.5938321342276</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>100.6740835020776</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
         <v>42.02425610119923</v>
@@ -5455,31 +5457,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R16" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S16" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>540.4241777800023</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C17" t="n">
-        <v>540.4241777800023</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="D17" t="n">
-        <v>540.4241777800023</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E17" t="n">
-        <v>540.4241777800023</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F17" t="n">
-        <v>540.4241777800023</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G17" t="n">
-        <v>124.3201912341903</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H17" t="n">
-        <v>124.3201912341903</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5543,22 +5545,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U17" t="n">
-        <v>1621.968522504967</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V17" t="n">
-        <v>1284.989248400908</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W17" t="n">
-        <v>922.4543182585089</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X17" t="n">
-        <v>540.4241777800023</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.4241777800023</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.975578367094</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N18" t="n">
         <v>1551.241224490216</v>
@@ -5692,28 +5694,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>535.5461600008207</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="V19" t="n">
-        <v>535.5461600008207</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="W19" t="n">
-        <v>264.0594149089221</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X19" t="n">
-        <v>264.0594149089221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
         <v>42.02425610119923</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1385.703164878184</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C20" t="n">
-        <v>1003.769406210992</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D20" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E20" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F20" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J20" t="n">
         <v>114.0228003740049</v>
@@ -5765,37 +5767,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O20" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P20" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q20" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R20" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S20" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T20" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.212805059961</v>
+        <v>1935.390589680093</v>
       </c>
       <c r="W20" t="n">
-        <v>2101.212805059961</v>
+        <v>1572.855659537694</v>
       </c>
       <c r="X20" t="n">
-        <v>2101.212805059961</v>
+        <v>1190.825519059187</v>
       </c>
       <c r="Y20" t="n">
-        <v>1779.746704396203</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>461.879904359699</v>
+        <v>461.8799043596994</v>
       </c>
       <c r="C21" t="n">
-        <v>300.1762316006536</v>
+        <v>300.1762316006541</v>
       </c>
       <c r="D21" t="n">
-        <v>161.3375945908657</v>
+        <v>161.3375945908662</v>
       </c>
       <c r="E21" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F21" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G21" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H21" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I21" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J21" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K21" t="n">
         <v>271.5148086613879</v>
       </c>
       <c r="L21" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M21" t="n">
-        <v>895.6512888769911</v>
+        <v>895.6512888769915</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O21" t="n">
         <v>1799.116885784264</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q21" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2041.428536154908</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>1888.629049167648</v>
       </c>
       <c r="T21" t="n">
-        <v>1699.943945333632</v>
+        <v>1699.943945333633</v>
       </c>
       <c r="U21" t="n">
         <v>1481.449152931943</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.053530380276</v>
+        <v>1253.053530380277</v>
       </c>
       <c r="W21" t="n">
         <v>1011.737661613587</v>
       </c>
       <c r="X21" t="n">
-        <v>813.8206734913811</v>
+        <v>813.8206734913815</v>
       </c>
       <c r="Y21" t="n">
-        <v>621.2993471409599</v>
+        <v>621.2993471409603</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.3385799430963</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C22" t="n">
-        <v>138.3385799430963</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J22" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K22" t="n">
         <v>75.62844384584264</v>
@@ -5935,25 +5937,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>360.3737387508193</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="W22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.3385799430963</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.0623394968745</v>
+        <v>931.5972696392739</v>
       </c>
       <c r="C23" t="n">
-        <v>569.0623394968745</v>
+        <v>931.5972696392739</v>
       </c>
       <c r="D23" t="n">
-        <v>569.0623394968745</v>
+        <v>931.5972696392739</v>
       </c>
       <c r="E23" t="n">
-        <v>174.2766196029814</v>
+        <v>536.8115497453807</v>
       </c>
       <c r="F23" t="n">
-        <v>174.2766196029814</v>
+        <v>122.6603590555511</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K23" t="n">
         <v>354.1631724187877</v>
@@ -6002,37 +6004,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O23" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P23" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q23" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R23" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.677874917562</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="X23" t="n">
-        <v>1356.647734439056</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y23" t="n">
-        <v>963.1058790148937</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>86.42806544579472</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I24" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J24" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K24" t="n">
         <v>271.5148086613879</v>
@@ -6078,40 +6080,40 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q24" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S24" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1481.449152931943</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K25" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558673</v>
       </c>
       <c r="L25" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M25" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N25" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O25" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U25" t="n">
-        <v>286.8932618362315</v>
+        <v>1855.30996129663</v>
       </c>
       <c r="V25" t="n">
-        <v>42.02425610119923</v>
+        <v>1855.30996129663</v>
       </c>
       <c r="W25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>370.739584530972</v>
+        <v>1313.627410117781</v>
       </c>
       <c r="C26" t="n">
-        <v>42.02425610119923</v>
+        <v>931.693651450588</v>
       </c>
       <c r="D26" t="n">
-        <v>42.02425610119923</v>
+        <v>558.8696866778116</v>
       </c>
       <c r="E26" t="n">
-        <v>42.02425610119923</v>
+        <v>164.0839667839185</v>
       </c>
       <c r="F26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J26" t="n">
         <v>114.0228003740049</v>
@@ -6230,7 +6232,7 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L26" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037341</v>
       </c>
       <c r="M26" t="n">
         <v>1095.287711756822</v>
@@ -6239,37 +6241,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O26" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P26" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q26" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S26" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T26" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U26" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V26" t="n">
-        <v>1509.348194669897</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W26" t="n">
-        <v>1146.813264527498</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="X26" t="n">
-        <v>764.7831240489911</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Y26" t="n">
-        <v>764.7831240489911</v>
+        <v>1707.6709496358</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D27" t="n">
-        <v>176.7180541513249</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E27" t="n">
-        <v>176.7180541513249</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G27" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I27" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J27" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L27" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q27" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225947</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.637286272591</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>1031.80009115548</v>
       </c>
     </row>
     <row r="28">
@@ -6385,7 +6387,7 @@
         <v>1569.153559814029</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>1602.757747558673</v>
       </c>
       <c r="L28" t="n">
         <v>1703.364826958932</v>
@@ -6400,31 +6402,31 @@
         <v>2038.244321331824</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W28" t="n">
-        <v>1815.05640357736</v>
+        <v>1815.056403577361</v>
       </c>
       <c r="X28" t="n">
-        <v>1583.803939472736</v>
+        <v>1583.803939472737</v>
       </c>
       <c r="Y28" t="n">
         <v>1569.153559814029</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1876.853858790972</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C29" t="n">
-        <v>1876.853858790972</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D29" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E29" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F29" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G29" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J29" t="n">
         <v>114.0228003740049</v>
@@ -6476,37 +6478,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P29" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q29" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T29" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U29" t="n">
-        <v>1876.853858790972</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="V29" t="n">
-        <v>1876.853858790972</v>
+        <v>1574.174721664286</v>
       </c>
       <c r="W29" t="n">
-        <v>1876.853858790972</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X29" t="n">
-        <v>1876.853858790972</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y29" t="n">
-        <v>1876.853858790972</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C30" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D30" t="n">
-        <v>161.3375945908657</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E30" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F30" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G30" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I30" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K30" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="L30" t="n">
-        <v>331.768955194494</v>
+        <v>252.8463055811708</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>737.8796590913972</v>
       </c>
       <c r="N30" t="n">
         <v>1249.145305214519</v>
@@ -6561,31 +6563,31 @@
         <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S30" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T30" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V30" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X30" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y30" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>423.4818982933994</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C31" t="n">
-        <v>423.4818982933994</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="D31" t="n">
-        <v>423.4818982933994</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="E31" t="n">
-        <v>423.4818982933994</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F31" t="n">
-        <v>271.0012433191765</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J31" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K31" t="n">
         <v>75.62844384584264</v>
@@ -6664,7 +6666,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.4818982933994</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1191.567699435062</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="C32" t="n">
-        <v>809.6339407678688</v>
+        <v>974.7139757718635</v>
       </c>
       <c r="D32" t="n">
-        <v>436.8099759950924</v>
+        <v>974.7139757718635</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>579.9282558779703</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>165.7770651881406</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J32" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K32" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L32" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037337</v>
       </c>
       <c r="M32" t="n">
         <v>1095.287711756822</v>
@@ -6713,37 +6715,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O32" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P32" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q32" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T32" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U32" t="n">
-        <v>1585.611238953081</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V32" t="n">
-        <v>1585.611238953081</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W32" t="n">
-        <v>1585.611238953081</v>
+        <v>1738.677874917563</v>
       </c>
       <c r="X32" t="n">
-        <v>1585.611238953081</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y32" t="n">
-        <v>1585.611238953081</v>
+        <v>1356.647734439056</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>753.0168738400023</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C33" t="n">
-        <v>591.313201080957</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D33" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E33" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F33" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G33" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H33" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I33" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K33" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="L33" t="n">
-        <v>637.3366538315036</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.37000734173</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N33" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O33" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P33" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q33" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S33" t="n">
-        <v>1948.413318072701</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T33" t="n">
-        <v>1948.413318072701</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1772.586122412246</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1544.19049986058</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1302.87463109389</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>1104.957642971684</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.4363166212631</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1695.622277567859</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="C34" t="n">
-        <v>1695.622277567859</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>1932.786488017904</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>1773.413842797178</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>1629.210798399857</v>
       </c>
       <c r="J34" t="n">
         <v>1569.153559814029</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>1602.757747558673</v>
       </c>
       <c r="L34" t="n">
         <v>1703.364826958932</v>
@@ -6874,34 +6876,34 @@
         <v>2038.244321331824</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="W34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="X34" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="Y34" t="n">
-        <v>1879.177646252238</v>
+        <v>2062.675463713651</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
         <v>114.0228003740049</v>
@@ -6950,37 +6952,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P35" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R35" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S35" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T35" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U35" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V35" t="n">
-        <v>1007.121986527115</v>
+        <v>2021.919258482017</v>
       </c>
       <c r="W35" t="n">
-        <v>644.5870563847161</v>
+        <v>2021.919258482017</v>
       </c>
       <c r="X35" t="n">
-        <v>262.5569159062094</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.02425610119923</v>
+        <v>1639.88911800351</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>674.4636602520136</v>
       </c>
       <c r="C36" t="n">
-        <v>300.1762316006536</v>
+        <v>512.7599874929683</v>
       </c>
       <c r="D36" t="n">
-        <v>161.3375945908657</v>
+        <v>373.9213504831804</v>
       </c>
       <c r="E36" t="n">
-        <v>42.02425610119923</v>
+        <v>226.8933405400516</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>92.19954248992596</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769915</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O36" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225947</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.637286272591</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>1026.404429383696</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>833.8831030332746</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K37" t="n">
         <v>75.62844384584264</v>
@@ -7120,25 +7122,25 @@
         <v>424.5617199615099</v>
       </c>
       <c r="S37" t="n">
-        <v>210.8519573651974</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T37" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>193.3092558568856</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1191.567699435062</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C38" t="n">
-        <v>809.6339407678688</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D38" t="n">
-        <v>436.8099759950924</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E38" t="n">
-        <v>42.02425610119923</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J38" t="n">
         <v>114.0228003740049</v>
@@ -7178,7 +7180,7 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L38" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037337</v>
       </c>
       <c r="M38" t="n">
         <v>1095.287711756822</v>
@@ -7187,37 +7189,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O38" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P38" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="W38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="X38" t="n">
-        <v>1913.983829690315</v>
+        <v>1999.76242964291</v>
       </c>
       <c r="Y38" t="n">
-        <v>1585.611238953081</v>
+        <v>1999.76242964291</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>618.3230757898766</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>456.6194030308313</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>317.7807660210434</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K39" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L39" t="n">
-        <v>407.8461012713149</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>892.8794547815413</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O39" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T39" t="n">
-        <v>2101.212805059961</v>
+        <v>1856.38711676381</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.906265175487</v>
+        <v>1637.89232436212</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.510642623821</v>
+        <v>1409.496701810454</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.194773857131</v>
+        <v>1168.180833043764</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>970.2638449215586</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>777.7425185711375</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="D40" t="n">
         <v>2041.648998064227</v>
@@ -7324,7 +7326,7 @@
         <v>1872.729249432077</v>
       </c>
       <c r="H40" t="n">
-        <v>1713.35660421135</v>
+        <v>1713.356604211351</v>
       </c>
       <c r="I40" t="n">
         <v>1569.153559814029</v>
@@ -7333,7 +7335,7 @@
         <v>1569.153559814029</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>1602.757747558673</v>
       </c>
       <c r="L40" t="n">
         <v>1703.364826958932</v>
@@ -7348,34 +7350,34 @@
         <v>2038.244321331824</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.648998064227</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021.822876670703</v>
+        <v>232.0830653928163</v>
       </c>
       <c r="C41" t="n">
-        <v>1639.88911800351</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
@@ -7424,37 +7426,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P41" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.212805059961</v>
+        <v>626.1266049108355</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>753.0168738400023</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C42" t="n">
-        <v>591.313201080957</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D42" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E42" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F42" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R42" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S42" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T42" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>912.4363166212631</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.4363166212631</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="C43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="D43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="E43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="F43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>138.405318478909</v>
       </c>
       <c r="H43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K43" t="n">
         <v>75.62844384584264</v>
@@ -7591,28 +7593,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S43" t="n">
-        <v>360.3737387508193</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T43" t="n">
-        <v>360.3737387508193</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U43" t="n">
-        <v>360.3737387508193</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V43" t="n">
-        <v>99.63843430924186</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="W43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="X43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.63843430924186</v>
+        <v>138.405318478909</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.689182269809</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C44" t="n">
-        <v>1755.689182269809</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="D44" t="n">
-        <v>1755.689182269809</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="E44" t="n">
-        <v>1377.917906530736</v>
+        <v>536.8115497453803</v>
       </c>
       <c r="F44" t="n">
-        <v>963.766715840906</v>
+        <v>122.6603590555506</v>
       </c>
       <c r="G44" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119923</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X44" t="n">
-        <v>1755.689182269809</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.689182269809</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>863.1487640860278</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>701.4450913269825</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>562.6064543171946</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>415.5784443740658</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
-        <v>280.8846463239402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1561463472247</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>52.21828889392278</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M45" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N45" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O45" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
@@ -7752,25 +7754,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1882.718012658271</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1654.322390106605</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1413.006521339915</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>1215.08953321771</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>1022.568206867289</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>1932.293056427811</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>1772.920411207085</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>1628.717366809764</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7991,7 +7993,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8058,7 +8060,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8067,13 +8069,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>570.0697896776412</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8295,7 +8297,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,16 +8306,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>453.9580732035297</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>110.8430489735533</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,13 +8540,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -8769,7 +8771,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,7 +8780,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8945,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9012,10 +9014,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N15" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9249,10 +9251,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3271126651593</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9483,10 +9485,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>253.0836423644577</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449611</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9726,13 +9728,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>184.9927927018795</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -9951,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>253.0836423644577</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260146</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10188,16 +10190,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024322</v>
       </c>
       <c r="M30" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10428,7 +10430,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,16 +10439,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>466.5796364545548</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10671,7 +10673,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449611</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10902,7 +10904,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>466.5796364545544</v>
+        <v>394.1362801165808</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>424.0295070382783</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,7 +11156,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>184.9927927018795</v>
       </c>
       <c r="Q42" t="n">
         <v>113.7351914448925</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11373,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>264.6642244265669</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>359.1734256395927</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>73.69983440332706</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22601,16 +22603,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22629,16 +22631,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22720,13 +22722,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>19.43647763297656</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,10 +22755,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -22790,19 +22792,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>127.3667862486566</v>
+        <v>315.9840743719717</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22847,7 +22849,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29.16157824641107</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22942,7 +22944,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>128.0878716655349</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -22954,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -23005,10 +23007,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>312.4238672632553</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23106,19 +23108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>38.44306048257951</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23182,22 +23184,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>251.121906237172</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138.0408227836756</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>171.2791036629602</v>
       </c>
     </row>
     <row r="12">
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>86.66742278442123</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
@@ -23479,7 +23481,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23510,10 +23512,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>282.2547552549957</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>57.6063699920433</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>99.7155896416493</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
         <v>142.7610139533483</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
@@ -23735,22 +23737,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>43.87163827606969</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>89.61605102163078</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,19 +23785,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -23944,19 +23946,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>244.6475751830577</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>14.52295982679533</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>169.445488136948</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>71.35499721279996</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.43752473892766</v>
+        <v>27.43752473892722</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
@@ -24130,7 +24132,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>56.18999363703676</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -24175,16 +24177,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>281.0131068135896</v>
+        <v>332.1132047555456</v>
       </c>
       <c r="H23" t="n">
         <v>329.4930616586638</v>
@@ -24266,7 +24268,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24291,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.48144372579874</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24342,10 +24344,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>40.87452179009296</v>
       </c>
       <c r="V25" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>52.68624593504569</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>289.1705652070393</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
@@ -24497,19 +24499,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>48.46680454673398</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>15.22665496485457</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>265.9869950823686</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>64.17826172444501</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24765,10 +24767,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>101.5979585925478</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24844,7 +24846,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>123.6564858706664</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24859,7 +24861,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.71922019645072</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>289.4276656842819</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>239.0948785386878</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -25005,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -25047,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>42.2409207738217</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>26.33714366422355</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25087,16 +25089,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>38.64046520703926</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25141,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25159,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>255.1088702508529</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25239,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>77.7676814521088</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>150.7677829637376</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>63.70773940111974</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
         <v>284.3183371157911</v>
@@ -25375,7 +25377,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.9429466803539</v>
@@ -25439,7 +25441,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -25454,10 +25456,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>277.7739674108407</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.51757204005793</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>95.69231349987153</v>
       </c>
       <c r="U39" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>92.57300531473754</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -25591,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>127.2103625788359</v>
       </c>
       <c r="S40" t="n">
         <v>211.5726649703493</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.5070750174734</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>189.9561998818198</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25685,16 +25687,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25716,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>97.62948669858321</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25798,10 +25800,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>110.1925147198663</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>62.36166701458623</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -25831,10 +25833,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
@@ -25843,10 +25845,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25871,19 +25873,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>16.84429971327199</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>332.113204755546</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25919,7 +25921,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25928,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>57.6063699920433</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4884972741916584</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>619976.67344753</v>
+        <v>619976.6734475298</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>619976.6734475296</v>
+        <v>619976.6734475298</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619976.67344753</v>
+        <v>619976.6734475297</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619976.6734475298</v>
+        <v>619976.6734475297</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619976.6734475297</v>
+        <v>619976.6734475298</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619976.6734475297</v>
+        <v>619976.67344753</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619976.6734475298</v>
+        <v>619976.67344753</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619976.6734475297</v>
+        <v>619976.6734475298</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619976.6734475297</v>
+        <v>619976.6734475301</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619976.67344753</v>
+        <v>619976.6734475301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619976.6734475297</v>
+        <v>619976.6734475298</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619976.67344753</v>
+        <v>619976.6734475297</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>154994.1683618825</v>
       </c>
       <c r="C2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="D2" t="n">
         <v>154994.1683618825</v>
       </c>
       <c r="E2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="F2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="G2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="H2" t="n">
         <v>154994.1683618826</v>
@@ -26335,7 +26337,7 @@
         <v>154994.1683618825</v>
       </c>
       <c r="J2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618827</v>
       </c>
       <c r="K2" t="n">
         <v>154994.1683618825</v>
@@ -26344,13 +26346,13 @@
         <v>154994.1683618825</v>
       </c>
       <c r="M2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="N2" t="n">
         <v>154994.1683618826</v>
       </c>
       <c r="O2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="P2" t="n">
         <v>154994.1683618825</v>
@@ -26418,7 +26420,7 @@
         <v>399.9854922104111</v>
       </c>
       <c r="C4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="D4" t="n">
         <v>399.9854922104112</v>
@@ -26439,7 +26441,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="J4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="K4" t="n">
         <v>399.9854922104112</v>
@@ -26457,7 +26459,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="P4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26487,28 @@
         <v>31938.43463691141</v>
       </c>
       <c r="H5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="I5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="J5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="K5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="L5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="M5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="N5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="O5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="P5" t="n">
         <v>31938.43463691141</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87013.03648476671</v>
+        <v>-87013.03648476665</v>
       </c>
       <c r="C6" t="n">
-        <v>89028.14823276075</v>
+        <v>89028.14823276072</v>
       </c>
       <c r="D6" t="n">
-        <v>89028.14823276069</v>
+        <v>89028.14823276066</v>
       </c>
       <c r="E6" t="n">
-        <v>122655.7482327607</v>
+        <v>122655.7482327608</v>
       </c>
       <c r="F6" t="n">
-        <v>122655.7482327607</v>
+        <v>122655.7482327608</v>
       </c>
       <c r="G6" t="n">
-        <v>122655.7482327607</v>
+        <v>122655.7482327608</v>
       </c>
       <c r="H6" t="n">
         <v>122655.7482327608</v>
@@ -26543,7 +26545,7 @@
         <v>122655.7482327607</v>
       </c>
       <c r="J6" t="n">
-        <v>-14786.68255901635</v>
+        <v>-14786.6825590163</v>
       </c>
       <c r="K6" t="n">
         <v>122655.7482327607</v>
@@ -26552,7 +26554,7 @@
         <v>122655.7482327607</v>
       </c>
       <c r="M6" t="n">
-        <v>122655.7482327607</v>
+        <v>122655.7482327608</v>
       </c>
       <c r="N6" t="n">
         <v>122655.7482327608</v>
@@ -26805,28 +26807,28 @@
         <v>525.3032012649903</v>
       </c>
       <c r="H4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="I4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="K4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="L4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="M4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="N4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="O4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="P4" t="n">
         <v>525.3032012649903</v>
@@ -34699,7 +34701,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34711,7 +34713,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34778,7 +34780,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34787,13 +34789,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>463.3546486099329</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34951,7 +34953,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35015,7 +35017,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,16 +35026,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>338.0986245924186</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>7.787477306886596</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,13 +35260,13 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35498,7 +35500,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35665,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N15" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35744,7 +35746,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>345.8432101035195</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36203,10 +36205,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>140.5082087933099</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833212</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36446,13 +36448,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773617</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>140.5082087933099</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36689,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>15.2758124018713</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>212.9515651312844</v>
       </c>
       <c r="M30" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N30" t="n">
         <v>516.4299455789112</v>
@@ -37087,7 +37089,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
@@ -37157,16 +37159,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>516.4299455789112</v>
+        <v>359.8644953868465</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37391,7 +37393,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833212</v>
       </c>
       <c r="N36" t="n">
         <v>516.4299455789112</v>
@@ -37400,7 +37402,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37631,7 +37633,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>359.864495386846</v>
+        <v>287.4211390488725</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37640,7 +37642,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>311.4540734671306</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37874,7 +37876,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773617</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>152.0887908554191</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38114,7 +38116,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
